--- a/時間割/外部設計書.xlsx
+++ b/時間割/外部設計書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="732" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -18,44 +18,47 @@
     <sheet name="画面1" sheetId="34" r:id="rId4"/>
     <sheet name="1" sheetId="19" r:id="rId5"/>
     <sheet name="2 (2)" sheetId="31" r:id="rId6"/>
-    <sheet name="４ (3)" sheetId="35" r:id="rId7"/>
-    <sheet name="７ (3)" sheetId="29" r:id="rId8"/>
-    <sheet name="画面２ (2)" sheetId="27" r:id="rId9"/>
-    <sheet name="４ (2)" sheetId="25" r:id="rId10"/>
-    <sheet name="５ (2)" sheetId="26" r:id="rId11"/>
+    <sheet name="画面２ (2)" sheetId="27" r:id="rId7"/>
+    <sheet name="４ (3)" sheetId="35" r:id="rId8"/>
+    <sheet name="４ (2)" sheetId="25" r:id="rId9"/>
+    <sheet name="５ (2)" sheetId="26" r:id="rId10"/>
+    <sheet name="７ (3)" sheetId="29" r:id="rId11"/>
     <sheet name="７" sheetId="16" r:id="rId12"/>
-    <sheet name="７ (2)" sheetId="28" r:id="rId13"/>
-    <sheet name="８" sheetId="32" r:id="rId14"/>
+    <sheet name="７ (4)" sheetId="36" r:id="rId13"/>
+    <sheet name="７ (2)" sheetId="28" r:id="rId14"/>
+    <sheet name="８" sheetId="32" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2 (2)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'４ (2)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'４ (3)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'５ (2)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'４ (2)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'４ (3)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'５ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'７'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'７ (2)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'７ (3)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'８'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'７ (2)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'７ (3)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'７ (4)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'８'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面1!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'画面２ (2)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'画面２ (2)'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'概略  (2)'!$A$1:$P$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_外部!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2 (2)'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'４ (2)'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'４ (3)'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'５ (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'４ (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'４ (3)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'５ (2)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'７'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'７ (2)'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'７ (3)'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">'８'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'画面２ (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'７ (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'７ (3)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'７ (4)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">'８'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'画面２ (2)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -89,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="194">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -2052,7 +2055,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスと過去問を表示</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問のメニューを表示</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問のメニュー</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認」を表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2088,15 +2159,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑧</t>
+    <t>⑩</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑩シラバス・過去問登録画面</t>
+    <t>⑪シラバス・過去問登録画面</t>
     <rPh sb="6" eb="9">
       <t>カコモン</t>
     </rPh>
@@ -2106,48 +2173,6 @@
     <rPh sb="11" eb="13">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シラバス・過去問</t>
-    <rPh sb="5" eb="8">
-      <t>カコモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シラバスと過去問を表示</t>
-    <rPh sb="5" eb="8">
-      <t>カコモン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シラバス・過去問のメニューを表示</t>
-    <rPh sb="5" eb="8">
-      <t>カコモン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シラバス・過去問のメニュー</t>
-    <rPh sb="5" eb="8">
-      <t>カコモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シラバス・過去問登録画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2655,7 +2680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2872,6 +2897,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2962,6 +2996,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,16 +3027,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3007,26 +3062,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3044,21 +3087,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4240,8 +4268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="649473" y="1459567"/>
-          <a:ext cx="7074269" cy="4231621"/>
+          <a:off x="635185" y="1492904"/>
+          <a:ext cx="7031407" cy="4355446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,13 +4325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="643534" y="2219722"/>
-          <a:ext cx="2188851" cy="254721"/>
+          <a:off x="650988" y="2192389"/>
+          <a:ext cx="2196306" cy="249752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4346,6 +4374,785 @@
             </a:rPr>
             <a:t>登録画面</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820585" y="1320053"/>
+          <a:ext cx="2712945" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップ画面、時間割選択画面に移動するようにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>背景からデザインについては、文字が見やすいよなカラーにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今後、保存したファイルを削除できるようにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17648</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646298" y="1910510"/>
+          <a:ext cx="2206440" cy="238685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>すべての登録画像画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7688</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="636338" y="3768474"/>
+          <a:ext cx="814772" cy="310401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>送信する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971674" y="3179472"/>
+          <a:ext cx="1269207" cy="270025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>540326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676287" y="3491773"/>
+          <a:ext cx="1264339" cy="217534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイル選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635185" y="1492904"/>
+          <a:ext cx="7046727" cy="371614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間割登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42522</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671172" y="3177091"/>
+          <a:ext cx="1269207" cy="270025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間割名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28278</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="656928" y="3449880"/>
+          <a:ext cx="1003736" cy="270025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像を選択：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472107</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3008359" y="3483007"/>
+          <a:ext cx="1426148" cy="270025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択されていません</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103742</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635185" y="1492904"/>
+          <a:ext cx="7031407" cy="4355446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4453,335 +5260,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>トップ画面、時間割選択画面に移動するようにする</a:t>
+            <a:t>確認以外の文字を表示しない。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>背景からデザインについては、文字が見やすいよなカラーにする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>今後、保存したファイルを削除できるようにする。⑩</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17648</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>72745</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638844" y="1935358"/>
-          <a:ext cx="2198985" cy="241170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>すべての登録画像画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7688</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>612910</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>116475</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628884" y="3818170"/>
-          <a:ext cx="812287" cy="315370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>送信する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>74322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>172897</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1959250" y="3221713"/>
-          <a:ext cx="1264238" cy="272510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57037</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>540326</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1663863" y="3538984"/>
-          <a:ext cx="1261854" cy="220019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ファイル選択</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4849,7 +5334,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割登録画面</a:t>
+            <a:t>確認画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4859,15 +5344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>42522</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71941</xdr:rowOff>
+      <xdr:colOff>90147</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>321129</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>170516</xdr:rowOff>
+      <xdr:colOff>368754</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4876,8 +5361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="663718" y="3219332"/>
-          <a:ext cx="1264237" cy="272510"/>
+          <a:off x="718797" y="1919791"/>
+          <a:ext cx="1269207" cy="270025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4911,152 +5396,14 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>時間割名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28278</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100405</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="649474" y="3497091"/>
-          <a:ext cx="998766" cy="272510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>画像を選択：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>608059</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>472107</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133532</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2993450" y="3530218"/>
-          <a:ext cx="1421179" cy="272510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>選択されていません</a:t>
+            <a:t>確認</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5066,7 +5413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6351,12 +6698,36 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>flag</a:t>
+            <a:t>=0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>被り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -7527,8 +7898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7827869" y="2017058"/>
-          <a:ext cx="945776" cy="387724"/>
+          <a:off x="7189111" y="1829668"/>
+          <a:ext cx="868993" cy="351957"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -7949,15 +8320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>349548</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105617</xdr:rowOff>
+      <xdr:colOff>359073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94552</xdr:rowOff>
+      <xdr:colOff>143996</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7966,7 +8337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6169323" y="3553667"/>
+          <a:off x="6178848" y="3677492"/>
           <a:ext cx="1823273" cy="503285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8032,13 +8403,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>359776</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>10439</xdr:rowOff>
+      <xdr:rowOff>153314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134472</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>20311</xdr:rowOff>
+      <xdr:rowOff>163186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8047,7 +8418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6179551" y="4830089"/>
+          <a:off x="6179551" y="4972964"/>
           <a:ext cx="1813046" cy="524222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8101,7 +8472,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>時間割</a:t>
+            <a:t>時間割表示画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8113,13 +8484,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>735758</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>89012</xdr:rowOff>
+      <xdr:rowOff>72525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>359776</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>99419</xdr:rowOff>
+      <xdr:rowOff>89013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8130,9 +8501,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5774483" y="5080112"/>
-          <a:ext cx="405068" cy="10407"/>
+        <a:xfrm flipV="1">
+          <a:off x="5774483" y="5235075"/>
+          <a:ext cx="405068" cy="16488"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8163,13 +8534,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>530628</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>84823</xdr:rowOff>
+      <xdr:rowOff>122923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>10234</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94695</xdr:rowOff>
+      <xdr:rowOff>132795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8178,8 +8549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8365976" y="4275823"/>
-          <a:ext cx="1815301" cy="531676"/>
+          <a:off x="8388753" y="4256773"/>
+          <a:ext cx="1822756" cy="524222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8242,15 +8613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>755788</xdr:colOff>
+      <xdr:colOff>736738</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>115772</xdr:rowOff>
+      <xdr:rowOff>106247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>379805</xdr:colOff>
+      <xdr:colOff>360755</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>116573</xdr:rowOff>
+      <xdr:rowOff>107048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8259,7 +8630,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5794513" y="4421072"/>
+          <a:off x="5775463" y="4582997"/>
           <a:ext cx="405067" cy="801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8290,14 +8661,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>726281</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5953</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>350298</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>6754</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8306,7 +8677,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5765006" y="3796903"/>
+          <a:off x="5765006" y="3911203"/>
           <a:ext cx="405067" cy="801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8433,15 +8804,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357801</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>162901</xdr:rowOff>
+      <xdr:colOff>376851</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>151836</xdr:rowOff>
+      <xdr:colOff>153521</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8450,7 +8821,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6177576" y="5496901"/>
+          <a:off x="6196626" y="5582626"/>
           <a:ext cx="1815020" cy="503285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8504,7 +8875,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>時間割保存画面</a:t>
+            <a:t>時間割登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8520,9 +8891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357802</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>73323</xdr:rowOff>
+      <xdr:colOff>376852</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8534,8 +8905,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5346496" y="4919142"/>
-          <a:ext cx="420150" cy="1242012"/>
+          <a:off x="5399723" y="5037365"/>
+          <a:ext cx="332745" cy="1261062"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8568,14 +8939,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>604332</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>6088</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8584,7 +8955,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2839496" y="5127326"/>
+          <a:off x="2839496" y="5079701"/>
           <a:ext cx="1288042" cy="1194881"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -8620,14 +8991,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>615538</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73253</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>731277</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>62188</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8636,7 +9007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4092163" y="6093053"/>
+          <a:off x="4092163" y="6045428"/>
           <a:ext cx="1677839" cy="503285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8680,7 +9051,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>10.</a:t>
+            <a:t>11.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -8702,13 +9073,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>364434</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>151986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>142213</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76133</xdr:rowOff>
+      <xdr:rowOff>161858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8717,8 +9088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162260" y="4257261"/>
-          <a:ext cx="1815301" cy="531676"/>
+          <a:off x="6184209" y="4285836"/>
+          <a:ext cx="1816129" cy="524222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8782,14 +9153,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124780</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134520</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527362</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135321</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8798,7 +9169,135 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7960128" y="4499455"/>
+          <a:off x="7982905" y="4535070"/>
+          <a:ext cx="402582" cy="801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54132</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8432651" y="5552173"/>
+          <a:ext cx="1822756" cy="524222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178203</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580785</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154371</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8036328" y="5830470"/>
           <a:ext cx="402582" cy="801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8994,8 +9493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="1876425"/>
-          <a:ext cx="6858000" cy="3951194"/>
+          <a:off x="246888" y="1699260"/>
+          <a:ext cx="6315456" cy="3582767"/>
           <a:chOff x="9906000" y="0"/>
           <a:chExt cx="8893550" cy="5303744"/>
         </a:xfrm>
@@ -10053,8 +10552,8 @@
       <xdr:rowOff>92597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>783451</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2401</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>104856</xdr:rowOff>
     </xdr:to>
@@ -10065,8 +10564,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1085848" y="1483247"/>
-          <a:ext cx="6479403" cy="4469959"/>
+          <a:off x="1002790" y="1343039"/>
+          <a:ext cx="5965815" cy="4052002"/>
           <a:chOff x="9950824" y="-14224"/>
           <a:chExt cx="8960451" cy="5303745"/>
         </a:xfrm>
@@ -10415,14 +10914,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>あ</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10469,68 +10965,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>か</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10220231" y="3664828"/>
-            <a:ext cx="474374" cy="483782"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>さ</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10719,38 +11158,106 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>454958</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27454</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46759</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3870614" cy="1766454"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1293158" y="2275354"/>
-          <a:ext cx="2078691" cy="353546"/>
+          <a:off x="2971800" y="4180609"/>
+          <a:ext cx="3870614" cy="1766454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過去問の画像を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>750795</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1657350"/>
+          <a:ext cx="2712945" cy="3864910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -10776,13 +11283,86 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>新着の過去問情報</a:t>
+            <a:t>-</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>シラバスの内容はすべてデータベースから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用いる。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10791,7 +11371,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12395,844 +12975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6535</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102254</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>103742</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="649473" y="1459567"/>
-          <a:ext cx="7074269" cy="4231621"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7820585" y="1320053"/>
-          <a:ext cx="2712945" cy="3864909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　実装にあたっての注意事項　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>背景からデザインについては、文字が見やすいカラーにする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>516825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380114</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1308</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2945700" y="2791573"/>
-          <a:ext cx="2220727" cy="233923"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>時間割登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>417111</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698708</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2041374" y="4211052"/>
-          <a:ext cx="1063650" cy="264275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6535</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102254</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="649473" y="1459567"/>
-          <a:ext cx="7089589" cy="362089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>すべての時間割表示画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>716149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>92867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>211933</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3145024" y="4117180"/>
-          <a:ext cx="1067409" cy="256756"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234383</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>515979</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>13867</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4204804" y="4206289"/>
-          <a:ext cx="1063649" cy="264275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>536551</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>89985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>818148</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>13366</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5289025" y="4205788"/>
-          <a:ext cx="1063649" cy="264275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>セメスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46759</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3870614" cy="1766454"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="4180609"/>
-          <a:ext cx="3870614" cy="1766454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>過去問の画像を表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>750795</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>16810</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7943850" y="1657350"/>
-          <a:ext cx="2712945" cy="3864910"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　実装にあたっての注意事項　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>シラバスの内容はすべてデータベースから</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>用いる。</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14422,7 +14165,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15573,6 +15316,633 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103742</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649473" y="1459567"/>
+          <a:ext cx="7074269" cy="4231621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820585" y="1320053"/>
+          <a:ext cx="2712945" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>背景からデザインについては、文字が見やすいカラーにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380114</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2945700" y="2791573"/>
+          <a:ext cx="2220727" cy="233923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間割登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>417111</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698708</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2041374" y="4211052"/>
+          <a:ext cx="1063650" cy="264275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649473" y="1459567"/>
+          <a:ext cx="7089589" cy="362089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>すべての時間割表示画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211933</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3145024" y="4117180"/>
+          <a:ext cx="1067409" cy="256756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234383</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515979</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4204804" y="4206289"/>
+          <a:ext cx="1063649" cy="264275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536551</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>818148</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289025" y="4205788"/>
+          <a:ext cx="1063649" cy="264275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セメスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -15910,8 +16280,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15943,10 +16313,10 @@
       <c r="O1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="72">
+      <c r="P1" s="75">
         <v>42934</v>
       </c>
-      <c r="Q1" s="73"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
@@ -15963,11 +16333,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="35"/>
@@ -16012,17 +16382,17 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16033,15 +16403,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16052,15 +16422,15 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16108,19 +16478,19 @@
       <c r="A10" s="35"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="36"/>
@@ -16129,17 +16499,17 @@
       <c r="A11" s="35"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="36"/>
@@ -16148,17 +16518,17 @@
       <c r="A12" s="35"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="36"/>
@@ -16168,17 +16538,17 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -16189,15 +16559,15 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -16208,15 +16578,15 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -16227,15 +16597,15 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -16246,15 +16616,15 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -16285,15 +16655,15 @@
       <c r="C19" s="14"/>
       <c r="D19" s="2"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="32"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -16306,13 +16676,13 @@
       <c r="C20" s="14"/>
       <c r="D20" s="2"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="32"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -16325,13 +16695,13 @@
       <c r="C21" s="14"/>
       <c r="D21" s="2"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="32"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -16344,13 +16714,13 @@
       <c r="C22" s="14"/>
       <c r="D22" s="2"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="32"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -16363,13 +16733,13 @@
       <c r="C23" s="14"/>
       <c r="D23" s="2"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="32"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -16382,13 +16752,13 @@
       <c r="C24" s="14"/>
       <c r="D24" s="2"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="32"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -16401,13 +16771,13 @@
       <c r="C25" s="14"/>
       <c r="D25" s="2"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="32"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -16420,13 +16790,13 @@
       <c r="C26" s="14"/>
       <c r="D26" s="2"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="32"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -16482,14 +16852,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="86" t="s">
+      <c r="K29" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
       <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -16503,18 +16873,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75" t="s">
+      <c r="L30" s="78"/>
+      <c r="M30" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75" t="s">
+      <c r="N30" s="78"/>
+      <c r="O30" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="80"/>
+      <c r="P30" s="83"/>
       <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -16528,12 +16898,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="81"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="84"/>
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -16547,12 +16917,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="81"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -16566,12 +16936,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="81"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="84"/>
       <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -16585,12 +16955,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="81"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="84"/>
       <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -16604,12 +16974,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="81"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16623,12 +16993,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="82"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="85"/>
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16683,7 +17053,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16700,25 +17070,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="130" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="54"/>
       <c r="M1" s="53"/>
       <c r="N1" s="54" t="s">
@@ -16753,7 +17123,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -16813,10 +17183,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -17465,32 +17835,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="H1" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="54"/>
       <c r="M1" s="53"/>
       <c r="N1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -17578,10 +17948,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -18230,25 +18600,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="50"/>
       <c r="M1" s="49"/>
       <c r="N1" s="50" t="s">
@@ -18343,7 +18713,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>117</v>
@@ -18971,6 +19341,771 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="17">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -18995,25 +20130,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="54"/>
       <c r="M1" s="53"/>
       <c r="N1" s="54" t="s">
@@ -19108,10 +20243,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -19735,15 +20870,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19760,25 +20895,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="102" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="67"/>
       <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
@@ -19873,7 +21008,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -20524,25 +21659,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="63"/>
       <c r="M1" s="62"/>
       <c r="N1" s="63" t="s">
@@ -21335,26 +22470,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="102" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="109" t="str">
         <f>[1]表紙_外部!D10</f>
         <v>（ＰＭ学科専用闇キャンパスポータルサイト）</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="67"/>
       <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
@@ -21453,20 +22588,20 @@
       <c r="D7" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="105" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="113"/>
       <c r="M7" s="67" t="s">
         <v>15</v>
       </c>
@@ -21486,20 +22621,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="108" t="s">
+      <c r="H8" s="107"/>
+      <c r="I8" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="20" t="s">
         <v>17</v>
       </c>
@@ -21519,20 +22654,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="108" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108" t="s">
+      <c r="H9" s="107"/>
+      <c r="I9" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="109"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="20" t="s">
         <v>17</v>
       </c>
@@ -21552,20 +22687,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="108" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="108" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="109"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="20" t="s">
         <v>17</v>
       </c>
@@ -21585,20 +22720,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="108" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="109"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="20" t="s">
         <v>17</v>
       </c>
@@ -21618,18 +22753,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="108" t="s">
+      <c r="F12" s="107"/>
+      <c r="G12" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="109"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="107"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -21643,20 +22778,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="108" t="s">
+      <c r="F13" s="107"/>
+      <c r="G13" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="109"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="107"/>
       <c r="M13" s="20" t="s">
         <v>17</v>
       </c>
@@ -21676,20 +22811,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="108" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="108" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="109"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="107"/>
       <c r="M14" s="20" t="s">
         <v>17</v>
       </c>
@@ -21709,20 +22844,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="108" t="s">
+      <c r="F15" s="107"/>
+      <c r="G15" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="108" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="109"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="107"/>
       <c r="M15" s="20" t="s">
         <v>74</v>
       </c>
@@ -21742,18 +22877,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="108" t="s">
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="108" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="109"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="107"/>
       <c r="M16" s="20" t="s">
         <v>145</v>
       </c>
@@ -21773,18 +22908,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="108" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="108" t="s">
+      <c r="H17" s="107"/>
+      <c r="I17" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="109"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="107"/>
       <c r="M17" s="20" t="s">
         <v>17</v>
       </c>
@@ -21804,20 +22939,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108" t="s">
+      <c r="F18" s="107"/>
+      <c r="G18" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="108" t="s">
+      <c r="H18" s="107"/>
+      <c r="I18" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="109"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="20" t="s">
         <v>74</v>
       </c>
@@ -21834,18 +22969,18 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="108" t="s">
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="108" t="s">
+      <c r="H19" s="107"/>
+      <c r="I19" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="109"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="20" t="s">
         <v>145</v>
       </c>
@@ -21865,18 +23000,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="108" t="s">
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="108" t="s">
+      <c r="H20" s="107"/>
+      <c r="I20" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="109"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="20" t="s">
         <v>17</v>
       </c>
@@ -21896,20 +23031,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="108" t="s">
+      <c r="E21" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="108" t="s">
+      <c r="F21" s="107"/>
+      <c r="G21" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="108" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="109"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="20" t="s">
         <v>17</v>
       </c>
@@ -21926,14 +23061,14 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
       <c r="O22" s="29"/>
@@ -22278,6 +23413,48 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:L22"/>
@@ -22287,48 +23464,6 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -22358,8 +23493,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22378,25 +23513,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="124"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="67"/>
       <c r="M1" s="66"/>
       <c r="N1" s="67" t="s">
@@ -22495,21 +23630,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="116" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>31</v>
@@ -22521,21 +23656,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="120"/>
+      <c r="E8" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120" t="s">
+      <c r="F8" s="116"/>
+      <c r="G8" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -22545,21 +23680,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="118" t="s">
-        <v>186</v>
+      <c r="D9" s="120"/>
+      <c r="E9" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="116"/>
+      <c r="G9" s="115" t="s">
+        <v>179</v>
       </c>
       <c r="H9" s="121"/>
       <c r="I9" s="121"/>
       <c r="J9" s="121"/>
-      <c r="K9" s="119"/>
+      <c r="K9" s="116"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -22569,21 +23704,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -22593,21 +23728,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118" t="s">
+      <c r="D11" s="120"/>
+      <c r="E11" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120" t="s">
+      <c r="F11" s="116"/>
+      <c r="G11" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -22617,21 +23752,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -22641,21 +23776,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118" t="s">
+      <c r="D13" s="120"/>
+      <c r="E13" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120" t="s">
+      <c r="F13" s="116"/>
+      <c r="G13" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -22665,21 +23800,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="118" t="s">
+      <c r="D14" s="119"/>
+      <c r="E14" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120" t="s">
+      <c r="F14" s="116"/>
+      <c r="G14" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -22689,21 +23824,21 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120" t="s">
+      <c r="F15" s="116"/>
+      <c r="G15" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>32</v>
@@ -22715,21 +23850,21 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118" t="s">
+      <c r="D16" s="120"/>
+      <c r="E16" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -22739,21 +23874,21 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="117" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
+      <c r="C17" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="120"/>
+      <c r="E17" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -22763,15 +23898,21 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
+      <c r="C18" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="120"/>
+      <c r="E18" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -23193,12 +24334,30 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -23208,30 +24367,12 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23268,25 +24409,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="52"/>
       <c r="M1" s="51"/>
       <c r="N1" s="52" t="s">
@@ -24033,25 +25174,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="63"/>
       <c r="M1" s="62"/>
       <c r="N1" s="63" t="s">
@@ -24781,7 +25922,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24798,32 +25939,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70" t="s">
+      <c r="H1" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="71" t="s">
-        <v>89</v>
+      <c r="O1" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -24851,7 +25992,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -24911,18 +26052,18 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="2"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -24935,12 +26076,14 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -24953,12 +26096,12 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -24971,12 +26114,14 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="K10" s="23"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -24989,12 +26134,14 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="K11" s="23"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -25007,12 +26154,12 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -25025,12 +26172,16 @@
       <c r="D13" s="24"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -25043,12 +26194,16 @@
       <c r="D14" s="24"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="2"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -25061,12 +26216,16 @@
       <c r="D15" s="24"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="2"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="131"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -25079,12 +26238,16 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="115">
+        <v>2</v>
+      </c>
+      <c r="J16" s="121"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -25097,12 +26260,14 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -25115,12 +26280,16 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="135"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -25133,12 +26302,16 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="121"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -25151,12 +26324,16 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="134"/>
+      <c r="J20" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="116"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -25169,12 +26346,12 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -25187,12 +26364,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -25205,12 +26382,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -25223,12 +26400,14 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -25241,12 +26420,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -25259,12 +26438,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -25277,12 +26456,12 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -25295,12 +26474,12 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="7"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -25313,12 +26492,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -25331,12 +26510,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -25349,12 +26528,12 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -25367,12 +26546,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -25385,12 +26564,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -25403,12 +26582,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -25421,12 +26600,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -25439,12 +26618,12 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="7"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -25457,12 +26636,16 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="134"/>
+      <c r="J37" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="134"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -25475,12 +26658,12 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -25523,14 +26706,25 @@
       <c r="P40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -25563,32 +26757,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="54" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="H1" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>93</v>
+      <c r="O1" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -25616,7 +26810,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -25676,10 +26870,10 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -26328,32 +27522,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="H1" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="54"/>
       <c r="M1" s="53"/>
       <c r="N1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P1" s="17">
         <v>42934</v>
@@ -26381,7 +27575,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
@@ -26441,18 +27635,18 @@
       <c r="A7" s="13"/>
       <c r="B7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="6"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -26465,14 +27659,12 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -26485,12 +27677,12 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="57"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -26503,14 +27695,12 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="57"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
-      </c>
+      <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -26523,14 +27713,12 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
-        <v>110</v>
-      </c>
+      <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -26543,12 +27731,12 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="57"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -26561,16 +27749,12 @@
       <c r="D13" s="24"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="124" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="7"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -26583,16 +27767,12 @@
       <c r="D14" s="24"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="7"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -26605,16 +27785,12 @@
       <c r="D15" s="24"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="7"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -26627,16 +27803,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="118">
-        <v>2</v>
-      </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -26649,14 +27821,12 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="7"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -26669,16 +27839,12 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="127" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="129"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="7"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -26691,16 +27857,12 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="7"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -26713,16 +27875,12 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="128"/>
-      <c r="J20" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -26735,12 +27893,12 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -26753,12 +27911,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -26771,12 +27929,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -26789,14 +27947,12 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -26809,12 +27965,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -26827,12 +27983,12 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -26845,12 +28001,12 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -26863,12 +28019,12 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -26881,12 +28037,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -26899,12 +28055,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="7"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -26917,12 +28073,12 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -26935,12 +28091,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="7"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -26953,12 +28109,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="7"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -26971,12 +28127,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -26989,12 +28145,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="7"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -27007,12 +28163,12 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="7"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -27025,16 +28181,12 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="128"/>
-      <c r="J37" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="128"/>
-      <c r="L37" s="7"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -27047,12 +28199,12 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -27095,25 +28247,14 @@
       <c r="P40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
